--- a/output/ADAM_29298529000115.xlsx
+++ b/output/ADAM_29298529000115.xlsx
@@ -768,10 +768,10 @@
         <v>44165</v>
       </c>
       <c r="B35">
-        <v>0.05928569000000006</v>
+        <v>0.05673247999999997</v>
       </c>
       <c r="C35">
-        <v>0.01880414898663019</v>
+        <v>0.0163485121685456</v>
       </c>
     </row>
   </sheetData>

--- a/output/ADAM_29298529000115.xlsx
+++ b/output/ADAM_29298529000115.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADAM MACRO STRATEGY ADVISORY D60 FI EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,392 +383,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43159</v>
       </c>
       <c r="B2">
-        <v>-0.000113180000000046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43190</v>
       </c>
       <c r="B3">
-        <v>-0.02898270000000003</v>
-      </c>
-      <c r="C3">
         <v>-0.02887278782212566</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43220</v>
       </c>
       <c r="B4">
-        <v>-0.009452829999999968</v>
-      </c>
-      <c r="C4">
         <v>0.02011279304704461</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43251</v>
       </c>
       <c r="B5">
-        <v>-0.01789167999999997</v>
-      </c>
-      <c r="C5">
         <v>-0.008519382272325293</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43281</v>
       </c>
       <c r="B6">
-        <v>-0.04294514000000005</v>
-      </c>
-      <c r="C6">
         <v>-0.0255098745116018</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43312</v>
       </c>
       <c r="B7">
-        <v>-0.03194728999999996</v>
-      </c>
-      <c r="C7">
         <v>0.01149134752839576</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43343</v>
       </c>
       <c r="B8">
-        <v>-0.03161605000000001</v>
-      </c>
-      <c r="C8">
         <v>0.0003421714505607021</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43373</v>
       </c>
       <c r="B9">
-        <v>-0.03156011999999997</v>
-      </c>
-      <c r="C9">
         <v>5.775601712532108e-05</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43404</v>
       </c>
       <c r="B10">
-        <v>-0.02186869999999996</v>
-      </c>
-      <c r="C10">
         <v>0.01000725001122427</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43434</v>
       </c>
       <c r="B11">
-        <v>-0.01795137000000002</v>
-      </c>
-      <c r="C11">
         <v>0.004004912223951829</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43465</v>
       </c>
       <c r="B12">
-        <v>-0.01332270000000002</v>
-      </c>
-      <c r="C12">
         <v>0.004713279830144357</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43496</v>
       </c>
       <c r="B13">
-        <v>-0.004584510000000042</v>
-      </c>
-      <c r="C13">
         <v>0.008856178205376652</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43524</v>
       </c>
       <c r="B14">
-        <v>-0.005097160000000045</v>
-      </c>
-      <c r="C14">
         <v>-0.0005150110734162272</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43555</v>
       </c>
       <c r="B15">
-        <v>0.002123979999999914</v>
-      </c>
-      <c r="C15">
         <v>0.007258135879881555</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43585</v>
       </c>
       <c r="B16">
-        <v>0.01093345000000001</v>
-      </c>
-      <c r="C16">
         <v>0.008790798519760168</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43616</v>
       </c>
       <c r="B17">
-        <v>0.02756536000000009</v>
-      </c>
-      <c r="C17">
         <v>0.01645203252498972</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43646</v>
       </c>
       <c r="B18">
-        <v>0.01241394000000007</v>
-      </c>
-      <c r="C18">
         <v>-0.01474496960465854</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43677</v>
       </c>
       <c r="B19">
-        <v>0.01004168999999999</v>
-      </c>
-      <c r="C19">
         <v>-0.002343162125958198</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43708</v>
       </c>
       <c r="B20">
-        <v>0.03331021000000001</v>
-      </c>
-      <c r="C20">
         <v>0.02303718770261853</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43738</v>
       </c>
       <c r="B21">
-        <v>0.02939522000000006</v>
-      </c>
-      <c r="C21">
         <v>-0.003788784783225863</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43769</v>
       </c>
       <c r="B22">
-        <v>0.02686963999999992</v>
-      </c>
-      <c r="C22">
         <v>-0.002453460003437935</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43799</v>
       </c>
       <c r="B23">
-        <v>0.02598371999999993</v>
-      </c>
-      <c r="C23">
         <v>-0.0008627385263819676</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43830</v>
       </c>
       <c r="B24">
-        <v>0.01842842999999994</v>
-      </c>
-      <c r="C24">
         <v>-0.007363947256395109</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43861</v>
       </c>
       <c r="B25">
-        <v>0.03611446000000007</v>
-      </c>
-      <c r="C25">
         <v>0.01736600185051795</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43890</v>
       </c>
       <c r="B26">
-        <v>0.05103210000000002</v>
-      </c>
-      <c r="C26">
         <v>0.01439767571625228</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43921</v>
       </c>
       <c r="B27">
-        <v>0.06985481000000004</v>
-      </c>
-      <c r="C27">
         <v>0.01790878699137743</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43951</v>
       </c>
       <c r="B28">
-        <v>0.06869579999999997</v>
-      </c>
-      <c r="C28">
         <v>-0.001083333915188001</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43982</v>
       </c>
       <c r="B29">
-        <v>0.07293086999999998</v>
-      </c>
-      <c r="C29">
         <v>0.003962839565758491</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44012</v>
       </c>
       <c r="B30">
-        <v>0.06399328000000004</v>
-      </c>
-      <c r="C30">
         <v>-0.008330070696912606</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44043</v>
       </c>
       <c r="B31">
-        <v>0.06657695999999991</v>
-      </c>
-      <c r="C31">
         <v>0.002428286013234748</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44074</v>
       </c>
       <c r="B32">
-        <v>0.05579661999999996</v>
-      </c>
-      <c r="C32">
         <v>-0.01010741878391963</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44104</v>
       </c>
       <c r="B33">
-        <v>0.03370935000000008</v>
-      </c>
-      <c r="C33">
         <v>-0.02092000446070752</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44135</v>
       </c>
       <c r="B34">
-        <v>0.03973436999999991</v>
-      </c>
-      <c r="C34">
         <v>0.005828543584325496</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44165</v>
       </c>
       <c r="B35">
-        <v>0.05673247999999997</v>
-      </c>
-      <c r="C35">
-        <v>0.0163485121685456</v>
+        <v>0.01346267893404351</v>
       </c>
     </row>
   </sheetData>
